--- a/QMS Form s/F-QMS-RM-01A (1).xlsx
+++ b/QMS Form s/F-QMS-RM-01A (1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai.abdelrahman\Downloads\Quality\QMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\QMS Form s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCBC825-BB10-4D0D-925D-D7A1E4A15BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2593C1-267B-40CC-AFCA-50F069DCE628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9CFDC96-5994-4F21-BB06-2EECABD85B21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C9CFDC96-5994-4F21-BB06-2EECABD85B21}"/>
   </bookViews>
   <sheets>
     <sheet name="F-QMS-RM-01 A" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-QMS-RM-01 A'!$A$1:$O$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-QMS-RM-01 A'!$A$1:$O$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Context Register (Internal &amp; External Issues)</t>
   </si>
@@ -117,19 +117,10 @@
     <t>Software Supervisor &amp; Systems Admin</t>
   </si>
   <si>
-    <t>Internal Strength: Existence of a comprehensive, documented Software Development Lifecycle (SDLC) procedure (SOP SW-G1) covering planning, development, testing, deployment, and maintenance.</t>
-  </si>
-  <si>
     <t>Internal - Process Maturity / Documentation</t>
   </si>
   <si>
     <t>Positive: Provides a standardized, repeatable framework for delivering software, ensuring consistency, quality control, and traceability throughout the project lifecycle.</t>
-  </si>
-  <si>
-    <t>Regular project audits against SOP SW-G1; Review of lifecycle phase completion metrics.</t>
-  </si>
-  <si>
-    <t>Internal Strength: Defined and severity-based procedure for Bug Management (SOP SW-G4) with clear steps for reporting, triage, fixing, validation, and Root Cause Analysis (RCA).</t>
   </si>
   <si>
     <t>Internal - Quality Assurance / Problem Resolution</t>
@@ -141,128 +132,7 @@
     <t>Monitor bug resolution times by severity; Review RCA reports and implemented preventive actions.</t>
   </si>
   <si>
-    <t>Software Supervisor</t>
-  </si>
-  <si>
     <t>Software Manager</t>
-  </si>
-  <si>
-    <t>Shared Service Coordinator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Track SLA compliance metrics; Analyze post-implementation survey results.</t>
-  </si>
-  <si>
-    <t>Positive: Professionalizes intake, sets clear expectations with internal customers (subsidiaries), and provides a basis for measuring service performance and satisfaction.</t>
-  </si>
-  <si>
-    <t>Internal - Customer Focus / Service Management</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Internal Strength: Implementation of a formal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Software Service Catalog (unclear)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and SLA framework (SOP SW-S1) for managing requests from subsidiaries.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INT-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>STR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SW-002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-STR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SW-004</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>INT-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>STR-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SW-001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Software Manager &amp; IT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Team</t>
-    </r>
   </si>
   <si>
     <t>Frequent relocation of the development team causing interruptions in workflow and reduced productivity.</t>
@@ -289,9 +159,6 @@
     <t>Monitor uptime dashboards, vendor status pages, and incident reports.</t>
   </si>
   <si>
-    <t>Microsoft ended support for .NET 7, requiring a full upgrade of the system to .NET 8.</t>
-  </si>
-  <si>
     <t>External – Technology / Compliance</t>
   </si>
   <si>
@@ -302,9 +169,6 @@
   </si>
   <si>
     <t>Major refactoring of the entire codebase due to adopting a new backend architecture and frontend UI framework. Significant logic restructuring was required.</t>
-  </si>
-  <si>
-    <t>Internal – Technology / Architecture</t>
   </si>
   <si>
     <t>Negative: Large refactors increase risk of defects, introduce instability, and delay ongoing development. Positive: Improved architecture enhances scalability, maintainability, and long-term performance.</t>
@@ -325,20 +189,68 @@
     <t>Track defect origin analysis, regression test reports, bug trends, root-cause analysis (RCA), and sprint retrospectives.</t>
   </si>
   <si>
-    <t>Technical Team</t>
-  </si>
-  <si>
     <t>Software Manager/ Team Supervisor</t>
   </si>
   <si>
     <t>Software Manager/ Team Supervisor/ Technical Team</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Software Manager &amp; IT Team</t>
+  </si>
+  <si>
+    <t>INT-SW-001</t>
+  </si>
+  <si>
+    <t>Internal Strength: Existence of a comprehensive, documented Software Development Lifecycle (SDLC) procedure (SOP S-SW-SD-1) covering planning, development, testing, deployment, and maintenance.</t>
+  </si>
+  <si>
+    <t>Regular project audits against SOP S-SW-SD-1; Review of lifecycle phase completion metrics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Manager,All Team </t>
+  </si>
+  <si>
+    <t>INT-SW-002</t>
+  </si>
+  <si>
+    <t>Internal Strength: Defined and severity-based procedure for Bug Management (SOP S-SW-BF-4) with clear steps for reporting, triage, fixing, validation, and Root Cause Analysis (RCA).</t>
+  </si>
+  <si>
+    <t>Software Tester,Software Supervisor</t>
+  </si>
+  <si>
+    <t>INT-SW-004</t>
+  </si>
+  <si>
+    <t>INT-SW-003</t>
+  </si>
+  <si>
+    <t>EXT-SW-004</t>
+  </si>
+  <si>
+    <t>Software Tester ,Technical Team</t>
+  </si>
+  <si>
+    <t>Microsoft ended support for Package like .Net 7, requiring a full upgrade of the system to .NET 8.</t>
+  </si>
+  <si>
+    <t>EXT-SW-005</t>
+  </si>
+  <si>
+    <t>External  – Technology / Architecture</t>
+  </si>
+  <si>
+    <t>EXT-SW-006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,7 +292,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -399,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -557,19 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -599,70 +497,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,6 +520,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,21 +959,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB86C92E-0279-425A-B58D-0047F9073943}">
-  <dimension ref="A1:BD243"/>
+  <dimension ref="A1:BD242"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="10" max="10" width="15.296875" customWidth="1"/>
-    <col min="15" max="15" width="42.09765625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="60.75" customHeight="1">
+    <row r="1" spans="1:56" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1132,24 +1031,24 @@
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
     </row>
-    <row r="2" spans="1:56" ht="51" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:56" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1192,7 +1091,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="18.75">
+    <row r="3" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1250,16 +1149,18 @@
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
     </row>
-    <row r="4" spans="1:56" ht="20.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:56" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1310,7 +1211,7 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="1:56" ht="18.75">
+    <row r="5" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1368,7 +1269,7 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
     </row>
-    <row r="6" spans="1:56" ht="19.5" thickBot="1">
+    <row r="6" spans="1:56" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1426,34 +1327,34 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="1:56" ht="64.5" customHeight="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:56" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="11" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8" t="s">
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="O7" s="24"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1496,34 +1397,34 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
     </row>
-    <row r="8" spans="1:56" ht="121.5" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:56" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="12" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="12" t="s">
-        <v>43</v>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="26" t="s">
+        <v>52</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8" s="27"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1566,34 +1467,34 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
     </row>
-    <row r="9" spans="1:56" ht="134.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:56" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10" t="s">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1636,34 +1537,34 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
     </row>
-    <row r="10" spans="1:56" ht="114.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:56" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1706,34 +1607,34 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
     </row>
-    <row r="11" spans="1:56" ht="203.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>42</v>
+    <row r="11" spans="1:56" ht="203.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>27</v>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>55</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
-        <v>28</v>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>56</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1776,34 +1677,34 @@
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
     </row>
-    <row r="12" spans="1:56" ht="162.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
+    <row r="12" spans="1:56" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>59</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1846,34 +1747,34 @@
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
     </row>
-    <row r="13" spans="1:56" ht="144.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>41</v>
+    <row r="13" spans="1:56" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>39</v>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>38</v>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>32</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>37</v>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
+        <v>33</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="s">
-        <v>36</v>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>34</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10" t="s">
-        <v>35</v>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="O13" s="23"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1916,32 +1817,34 @@
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
     </row>
-    <row r="14" spans="1:56" ht="105.6" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="21" t="s">
-        <v>44</v>
+    <row r="14" spans="1:56" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>45</v>
+      <c r="B14" s="14" t="s">
+        <v>35</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21" t="s">
-        <v>46</v>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>36</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21" t="s">
-        <v>47</v>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>37</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21" t="s">
-        <v>34</v>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>38</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="23"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1984,32 +1887,34 @@
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
     </row>
-    <row r="15" spans="1:56" ht="90.6" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:56" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21" t="s">
-        <v>49</v>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="6" t="s">
+        <v>63</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2052,32 +1957,34 @@
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
     </row>
-    <row r="16" spans="1:56" ht="90.6" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="25" t="s">
-        <v>60</v>
+    <row r="16" spans="1:56" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>65</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="25" t="s">
+      <c r="B16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="23"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -2120,32 +2027,34 @@
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
     </row>
-    <row r="17" spans="1:56" ht="100.8" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="21" t="s">
-        <v>52</v>
+    <row r="17" spans="1:56" ht="141.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>67</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21" t="s">
-        <v>53</v>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21" t="s">
-        <v>54</v>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>66</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21" t="s">
-        <v>55</v>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>43</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21" t="s">
-        <v>65</v>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O17" s="11"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -2188,32 +2097,22 @@
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
     </row>
-    <row r="18" spans="1:56" ht="114" customHeight="1" thickBot="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="24"/>
+    <row r="18" spans="1:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -2256,22 +2155,22 @@
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
     </row>
-    <row r="19" spans="1:56" ht="24.9" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+    <row r="19" spans="1:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -2314,22 +2213,22 @@
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
     </row>
-    <row r="20" spans="1:56" ht="24.9" customHeight="1">
+    <row r="20" spans="1:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -2372,22 +2271,22 @@
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
     </row>
-    <row r="21" spans="1:56" ht="24.9" customHeight="1">
+    <row r="21" spans="1:56" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -2430,22 +2329,22 @@
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
     </row>
-    <row r="22" spans="1:56" ht="24.9" customHeight="1">
+    <row r="22" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -2488,7 +2387,7 @@
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
     </row>
-    <row r="23" spans="1:56" ht="18">
+    <row r="23" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2546,7 +2445,7 @@
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
     </row>
-    <row r="24" spans="1:56" ht="18">
+    <row r="24" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2604,7 +2503,7 @@
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
     </row>
-    <row r="25" spans="1:56" ht="18">
+    <row r="25" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2662,7 +2561,7 @@
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
     </row>
-    <row r="26" spans="1:56" ht="18">
+    <row r="26" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2720,7 +2619,7 @@
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
     </row>
-    <row r="27" spans="1:56" ht="18">
+    <row r="27" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2778,7 +2677,7 @@
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
     </row>
-    <row r="28" spans="1:56" ht="18">
+    <row r="28" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2836,7 +2735,7 @@
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
     </row>
-    <row r="29" spans="1:56" ht="18">
+    <row r="29" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2894,7 +2793,7 @@
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
     </row>
-    <row r="30" spans="1:56" ht="18">
+    <row r="30" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2952,7 +2851,7 @@
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
     </row>
-    <row r="31" spans="1:56" ht="18">
+    <row r="31" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3010,7 +2909,7 @@
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
     </row>
-    <row r="32" spans="1:56" ht="18">
+    <row r="32" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3068,7 +2967,7 @@
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
     </row>
-    <row r="33" spans="1:56" ht="18">
+    <row r="33" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3126,7 +3025,7 @@
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
     </row>
-    <row r="34" spans="1:56" ht="18">
+    <row r="34" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3184,7 +3083,7 @@
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
     </row>
-    <row r="35" spans="1:56" ht="18">
+    <row r="35" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3242,7 +3141,7 @@
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
     </row>
-    <row r="36" spans="1:56" ht="18">
+    <row r="36" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3300,7 +3199,7 @@
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
     </row>
-    <row r="37" spans="1:56" ht="18">
+    <row r="37" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3358,7 +3257,7 @@
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
     </row>
-    <row r="38" spans="1:56" ht="18">
+    <row r="38" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3416,7 +3315,7 @@
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
     </row>
-    <row r="39" spans="1:56" ht="18">
+    <row r="39" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3474,7 +3373,7 @@
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
     </row>
-    <row r="40" spans="1:56" ht="18">
+    <row r="40" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3532,7 +3431,7 @@
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
     </row>
-    <row r="41" spans="1:56" ht="18">
+    <row r="41" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3590,7 +3489,7 @@
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
     </row>
-    <row r="42" spans="1:56" ht="18">
+    <row r="42" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3648,7 +3547,7 @@
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
     </row>
-    <row r="43" spans="1:56" ht="18">
+    <row r="43" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3706,7 +3605,7 @@
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
     </row>
-    <row r="44" spans="1:56" ht="18">
+    <row r="44" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3764,7 +3663,7 @@
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
     </row>
-    <row r="45" spans="1:56" ht="18">
+    <row r="45" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3822,7 +3721,7 @@
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
     </row>
-    <row r="46" spans="1:56" ht="18">
+    <row r="46" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3880,7 +3779,7 @@
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
     </row>
-    <row r="47" spans="1:56" ht="18">
+    <row r="47" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3938,7 +3837,7 @@
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
     </row>
-    <row r="48" spans="1:56" ht="18">
+    <row r="48" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3996,7 +3895,7 @@
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
     </row>
-    <row r="49" spans="1:56" ht="18">
+    <row r="49" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4054,7 +3953,7 @@
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
     </row>
-    <row r="50" spans="1:56" ht="18">
+    <row r="50" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4112,7 +4011,7 @@
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
     </row>
-    <row r="51" spans="1:56" ht="18">
+    <row r="51" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4170,7 +4069,7 @@
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
     </row>
-    <row r="52" spans="1:56" ht="18">
+    <row r="52" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4228,7 +4127,7 @@
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
     </row>
-    <row r="53" spans="1:56" ht="18">
+    <row r="53" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4286,7 +4185,7 @@
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
     </row>
-    <row r="54" spans="1:56" ht="18">
+    <row r="54" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4344,7 +4243,7 @@
       <c r="BC54" s="1"/>
       <c r="BD54" s="1"/>
     </row>
-    <row r="55" spans="1:56" ht="18">
+    <row r="55" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4402,7 +4301,7 @@
       <c r="BC55" s="1"/>
       <c r="BD55" s="1"/>
     </row>
-    <row r="56" spans="1:56" ht="18">
+    <row r="56" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4460,7 +4359,7 @@
       <c r="BC56" s="1"/>
       <c r="BD56" s="1"/>
     </row>
-    <row r="57" spans="1:56" ht="18">
+    <row r="57" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4518,7 +4417,7 @@
       <c r="BC57" s="1"/>
       <c r="BD57" s="1"/>
     </row>
-    <row r="58" spans="1:56" ht="18">
+    <row r="58" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4576,7 +4475,7 @@
       <c r="BC58" s="1"/>
       <c r="BD58" s="1"/>
     </row>
-    <row r="59" spans="1:56" ht="18">
+    <row r="59" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4634,7 +4533,7 @@
       <c r="BC59" s="1"/>
       <c r="BD59" s="1"/>
     </row>
-    <row r="60" spans="1:56" ht="18">
+    <row r="60" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4692,7 +4591,7 @@
       <c r="BC60" s="1"/>
       <c r="BD60" s="1"/>
     </row>
-    <row r="61" spans="1:56" ht="18">
+    <row r="61" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4750,7 +4649,7 @@
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
     </row>
-    <row r="62" spans="1:56" ht="18">
+    <row r="62" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4808,7 +4707,7 @@
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
     </row>
-    <row r="63" spans="1:56" ht="18">
+    <row r="63" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4866,7 +4765,7 @@
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
     </row>
-    <row r="64" spans="1:56" ht="18">
+    <row r="64" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4924,7 +4823,7 @@
       <c r="BC64" s="1"/>
       <c r="BD64" s="1"/>
     </row>
-    <row r="65" spans="1:56" ht="18">
+    <row r="65" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4982,7 +4881,7 @@
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
     </row>
-    <row r="66" spans="1:56" ht="18">
+    <row r="66" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5040,7 +4939,7 @@
       <c r="BC66" s="1"/>
       <c r="BD66" s="1"/>
     </row>
-    <row r="67" spans="1:56" ht="18">
+    <row r="67" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5098,7 +4997,7 @@
       <c r="BC67" s="1"/>
       <c r="BD67" s="1"/>
     </row>
-    <row r="68" spans="1:56" ht="18">
+    <row r="68" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5156,7 +5055,7 @@
       <c r="BC68" s="1"/>
       <c r="BD68" s="1"/>
     </row>
-    <row r="69" spans="1:56" ht="18">
+    <row r="69" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5214,7 +5113,7 @@
       <c r="BC69" s="1"/>
       <c r="BD69" s="1"/>
     </row>
-    <row r="70" spans="1:56" ht="18">
+    <row r="70" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5272,7 +5171,7 @@
       <c r="BC70" s="1"/>
       <c r="BD70" s="1"/>
     </row>
-    <row r="71" spans="1:56" ht="18">
+    <row r="71" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5330,7 +5229,7 @@
       <c r="BC71" s="1"/>
       <c r="BD71" s="1"/>
     </row>
-    <row r="72" spans="1:56" ht="18">
+    <row r="72" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5388,7 +5287,7 @@
       <c r="BC72" s="1"/>
       <c r="BD72" s="1"/>
     </row>
-    <row r="73" spans="1:56" ht="18">
+    <row r="73" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5446,7 +5345,7 @@
       <c r="BC73" s="1"/>
       <c r="BD73" s="1"/>
     </row>
-    <row r="74" spans="1:56" ht="18">
+    <row r="74" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5504,7 +5403,7 @@
       <c r="BC74" s="1"/>
       <c r="BD74" s="1"/>
     </row>
-    <row r="75" spans="1:56" ht="18">
+    <row r="75" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5562,7 +5461,7 @@
       <c r="BC75" s="1"/>
       <c r="BD75" s="1"/>
     </row>
-    <row r="76" spans="1:56" ht="18">
+    <row r="76" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5620,7 +5519,7 @@
       <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
     </row>
-    <row r="77" spans="1:56" ht="18">
+    <row r="77" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5678,7 +5577,7 @@
       <c r="BC77" s="1"/>
       <c r="BD77" s="1"/>
     </row>
-    <row r="78" spans="1:56" ht="18">
+    <row r="78" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5736,7 +5635,7 @@
       <c r="BC78" s="1"/>
       <c r="BD78" s="1"/>
     </row>
-    <row r="79" spans="1:56" ht="18">
+    <row r="79" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5794,7 +5693,7 @@
       <c r="BC79" s="1"/>
       <c r="BD79" s="1"/>
     </row>
-    <row r="80" spans="1:56" ht="18">
+    <row r="80" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5852,7 +5751,7 @@
       <c r="BC80" s="1"/>
       <c r="BD80" s="1"/>
     </row>
-    <row r="81" spans="1:56" ht="18">
+    <row r="81" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5910,7 +5809,7 @@
       <c r="BC81" s="1"/>
       <c r="BD81" s="1"/>
     </row>
-    <row r="82" spans="1:56" ht="18">
+    <row r="82" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5968,7 +5867,7 @@
       <c r="BC82" s="1"/>
       <c r="BD82" s="1"/>
     </row>
-    <row r="83" spans="1:56" ht="18">
+    <row r="83" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6026,7 +5925,7 @@
       <c r="BC83" s="1"/>
       <c r="BD83" s="1"/>
     </row>
-    <row r="84" spans="1:56" ht="18">
+    <row r="84" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6084,7 +5983,7 @@
       <c r="BC84" s="1"/>
       <c r="BD84" s="1"/>
     </row>
-    <row r="85" spans="1:56" ht="18">
+    <row r="85" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6142,7 +6041,7 @@
       <c r="BC85" s="1"/>
       <c r="BD85" s="1"/>
     </row>
-    <row r="86" spans="1:56" ht="18">
+    <row r="86" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6200,7 +6099,7 @@
       <c r="BC86" s="1"/>
       <c r="BD86" s="1"/>
     </row>
-    <row r="87" spans="1:56" ht="18">
+    <row r="87" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6258,7 +6157,7 @@
       <c r="BC87" s="1"/>
       <c r="BD87" s="1"/>
     </row>
-    <row r="88" spans="1:56" ht="18">
+    <row r="88" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6316,7 +6215,7 @@
       <c r="BC88" s="1"/>
       <c r="BD88" s="1"/>
     </row>
-    <row r="89" spans="1:56" ht="18">
+    <row r="89" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6374,7 +6273,7 @@
       <c r="BC89" s="1"/>
       <c r="BD89" s="1"/>
     </row>
-    <row r="90" spans="1:56" ht="18">
+    <row r="90" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6432,7 +6331,7 @@
       <c r="BC90" s="1"/>
       <c r="BD90" s="1"/>
     </row>
-    <row r="91" spans="1:56" ht="18">
+    <row r="91" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6490,7 +6389,7 @@
       <c r="BC91" s="1"/>
       <c r="BD91" s="1"/>
     </row>
-    <row r="92" spans="1:56" ht="18">
+    <row r="92" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6548,7 +6447,7 @@
       <c r="BC92" s="1"/>
       <c r="BD92" s="1"/>
     </row>
-    <row r="93" spans="1:56" ht="18">
+    <row r="93" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6606,7 +6505,7 @@
       <c r="BC93" s="1"/>
       <c r="BD93" s="1"/>
     </row>
-    <row r="94" spans="1:56" ht="18">
+    <row r="94" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6664,7 +6563,7 @@
       <c r="BC94" s="1"/>
       <c r="BD94" s="1"/>
     </row>
-    <row r="95" spans="1:56" ht="18">
+    <row r="95" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6722,7 +6621,7 @@
       <c r="BC95" s="1"/>
       <c r="BD95" s="1"/>
     </row>
-    <row r="96" spans="1:56" ht="18">
+    <row r="96" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6780,7 +6679,7 @@
       <c r="BC96" s="1"/>
       <c r="BD96" s="1"/>
     </row>
-    <row r="97" spans="1:56" ht="18">
+    <row r="97" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6838,7 +6737,7 @@
       <c r="BC97" s="1"/>
       <c r="BD97" s="1"/>
     </row>
-    <row r="98" spans="1:56" ht="18">
+    <row r="98" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6896,7 +6795,7 @@
       <c r="BC98" s="1"/>
       <c r="BD98" s="1"/>
     </row>
-    <row r="99" spans="1:56" ht="18">
+    <row r="99" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6954,7 +6853,7 @@
       <c r="BC99" s="1"/>
       <c r="BD99" s="1"/>
     </row>
-    <row r="100" spans="1:56" ht="18">
+    <row r="100" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7012,7 +6911,7 @@
       <c r="BC100" s="1"/>
       <c r="BD100" s="1"/>
     </row>
-    <row r="101" spans="1:56" ht="18">
+    <row r="101" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7070,7 +6969,7 @@
       <c r="BC101" s="1"/>
       <c r="BD101" s="1"/>
     </row>
-    <row r="102" spans="1:56" ht="18">
+    <row r="102" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7128,7 +7027,7 @@
       <c r="BC102" s="1"/>
       <c r="BD102" s="1"/>
     </row>
-    <row r="103" spans="1:56" ht="18">
+    <row r="103" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7186,7 +7085,7 @@
       <c r="BC103" s="1"/>
       <c r="BD103" s="1"/>
     </row>
-    <row r="104" spans="1:56" ht="18">
+    <row r="104" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7244,7 +7143,7 @@
       <c r="BC104" s="1"/>
       <c r="BD104" s="1"/>
     </row>
-    <row r="105" spans="1:56" ht="18">
+    <row r="105" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7302,7 +7201,7 @@
       <c r="BC105" s="1"/>
       <c r="BD105" s="1"/>
     </row>
-    <row r="106" spans="1:56" ht="18">
+    <row r="106" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7360,7 +7259,7 @@
       <c r="BC106" s="1"/>
       <c r="BD106" s="1"/>
     </row>
-    <row r="107" spans="1:56" ht="18">
+    <row r="107" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7418,7 +7317,7 @@
       <c r="BC107" s="1"/>
       <c r="BD107" s="1"/>
     </row>
-    <row r="108" spans="1:56" ht="18">
+    <row r="108" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7476,7 +7375,7 @@
       <c r="BC108" s="1"/>
       <c r="BD108" s="1"/>
     </row>
-    <row r="109" spans="1:56" ht="18">
+    <row r="109" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7534,7 +7433,7 @@
       <c r="BC109" s="1"/>
       <c r="BD109" s="1"/>
     </row>
-    <row r="110" spans="1:56" ht="18">
+    <row r="110" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7592,7 +7491,7 @@
       <c r="BC110" s="1"/>
       <c r="BD110" s="1"/>
     </row>
-    <row r="111" spans="1:56" ht="18">
+    <row r="111" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7650,7 +7549,7 @@
       <c r="BC111" s="1"/>
       <c r="BD111" s="1"/>
     </row>
-    <row r="112" spans="1:56" ht="18">
+    <row r="112" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7708,7 +7607,7 @@
       <c r="BC112" s="1"/>
       <c r="BD112" s="1"/>
     </row>
-    <row r="113" spans="1:56" ht="18">
+    <row r="113" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7766,7 +7665,7 @@
       <c r="BC113" s="1"/>
       <c r="BD113" s="1"/>
     </row>
-    <row r="114" spans="1:56" ht="18">
+    <row r="114" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7824,7 +7723,7 @@
       <c r="BC114" s="1"/>
       <c r="BD114" s="1"/>
     </row>
-    <row r="115" spans="1:56" ht="18">
+    <row r="115" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7882,7 +7781,7 @@
       <c r="BC115" s="1"/>
       <c r="BD115" s="1"/>
     </row>
-    <row r="116" spans="1:56" ht="18">
+    <row r="116" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7940,7 +7839,7 @@
       <c r="BC116" s="1"/>
       <c r="BD116" s="1"/>
     </row>
-    <row r="117" spans="1:56" ht="18">
+    <row r="117" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7998,7 +7897,7 @@
       <c r="BC117" s="1"/>
       <c r="BD117" s="1"/>
     </row>
-    <row r="118" spans="1:56" ht="18">
+    <row r="118" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8056,7 +7955,7 @@
       <c r="BC118" s="1"/>
       <c r="BD118" s="1"/>
     </row>
-    <row r="119" spans="1:56" ht="18">
+    <row r="119" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8114,7 +8013,7 @@
       <c r="BC119" s="1"/>
       <c r="BD119" s="1"/>
     </row>
-    <row r="120" spans="1:56" ht="18">
+    <row r="120" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8172,7 +8071,7 @@
       <c r="BC120" s="1"/>
       <c r="BD120" s="1"/>
     </row>
-    <row r="121" spans="1:56" ht="18">
+    <row r="121" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8230,7 +8129,7 @@
       <c r="BC121" s="1"/>
       <c r="BD121" s="1"/>
     </row>
-    <row r="122" spans="1:56" ht="18">
+    <row r="122" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8288,7 +8187,7 @@
       <c r="BC122" s="1"/>
       <c r="BD122" s="1"/>
     </row>
-    <row r="123" spans="1:56" ht="18">
+    <row r="123" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8346,7 +8245,7 @@
       <c r="BC123" s="1"/>
       <c r="BD123" s="1"/>
     </row>
-    <row r="124" spans="1:56" ht="18">
+    <row r="124" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8404,7 +8303,7 @@
       <c r="BC124" s="1"/>
       <c r="BD124" s="1"/>
     </row>
-    <row r="125" spans="1:56" ht="18">
+    <row r="125" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8462,7 +8361,7 @@
       <c r="BC125" s="1"/>
       <c r="BD125" s="1"/>
     </row>
-    <row r="126" spans="1:56" ht="18">
+    <row r="126" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8520,7 +8419,7 @@
       <c r="BC126" s="1"/>
       <c r="BD126" s="1"/>
     </row>
-    <row r="127" spans="1:56" ht="18">
+    <row r="127" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8578,7 +8477,7 @@
       <c r="BC127" s="1"/>
       <c r="BD127" s="1"/>
     </row>
-    <row r="128" spans="1:56" ht="18">
+    <row r="128" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8636,7 +8535,7 @@
       <c r="BC128" s="1"/>
       <c r="BD128" s="1"/>
     </row>
-    <row r="129" spans="1:56" ht="18">
+    <row r="129" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8694,7 +8593,7 @@
       <c r="BC129" s="1"/>
       <c r="BD129" s="1"/>
     </row>
-    <row r="130" spans="1:56" ht="18">
+    <row r="130" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8752,7 +8651,7 @@
       <c r="BC130" s="1"/>
       <c r="BD130" s="1"/>
     </row>
-    <row r="131" spans="1:56" ht="18">
+    <row r="131" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8810,7 +8709,7 @@
       <c r="BC131" s="1"/>
       <c r="BD131" s="1"/>
     </row>
-    <row r="132" spans="1:56" ht="18">
+    <row r="132" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8868,7 +8767,7 @@
       <c r="BC132" s="1"/>
       <c r="BD132" s="1"/>
     </row>
-    <row r="133" spans="1:56" ht="18">
+    <row r="133" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8926,7 +8825,7 @@
       <c r="BC133" s="1"/>
       <c r="BD133" s="1"/>
     </row>
-    <row r="134" spans="1:56" ht="18">
+    <row r="134" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8984,7 +8883,7 @@
       <c r="BC134" s="1"/>
       <c r="BD134" s="1"/>
     </row>
-    <row r="135" spans="1:56" ht="18">
+    <row r="135" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9042,7 +8941,7 @@
       <c r="BC135" s="1"/>
       <c r="BD135" s="1"/>
     </row>
-    <row r="136" spans="1:56" ht="18">
+    <row r="136" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -9100,7 +8999,7 @@
       <c r="BC136" s="1"/>
       <c r="BD136" s="1"/>
     </row>
-    <row r="137" spans="1:56" ht="18">
+    <row r="137" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -9158,7 +9057,7 @@
       <c r="BC137" s="1"/>
       <c r="BD137" s="1"/>
     </row>
-    <row r="138" spans="1:56" ht="18">
+    <row r="138" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9216,7 +9115,7 @@
       <c r="BC138" s="1"/>
       <c r="BD138" s="1"/>
     </row>
-    <row r="139" spans="1:56" ht="18">
+    <row r="139" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9274,7 +9173,7 @@
       <c r="BC139" s="1"/>
       <c r="BD139" s="1"/>
     </row>
-    <row r="140" spans="1:56" ht="18">
+    <row r="140" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9332,7 +9231,7 @@
       <c r="BC140" s="1"/>
       <c r="BD140" s="1"/>
     </row>
-    <row r="141" spans="1:56" ht="18">
+    <row r="141" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9390,7 +9289,7 @@
       <c r="BC141" s="1"/>
       <c r="BD141" s="1"/>
     </row>
-    <row r="142" spans="1:56" ht="18">
+    <row r="142" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9448,7 +9347,7 @@
       <c r="BC142" s="1"/>
       <c r="BD142" s="1"/>
     </row>
-    <row r="143" spans="1:56" ht="18">
+    <row r="143" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9506,7 +9405,7 @@
       <c r="BC143" s="1"/>
       <c r="BD143" s="1"/>
     </row>
-    <row r="144" spans="1:56" ht="18">
+    <row r="144" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9564,7 +9463,7 @@
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
     </row>
-    <row r="145" spans="1:56" ht="18">
+    <row r="145" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9622,7 +9521,7 @@
       <c r="BC145" s="1"/>
       <c r="BD145" s="1"/>
     </row>
-    <row r="146" spans="1:56" ht="18">
+    <row r="146" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9680,7 +9579,7 @@
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
     </row>
-    <row r="147" spans="1:56" ht="18">
+    <row r="147" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9738,7 +9637,7 @@
       <c r="BC147" s="1"/>
       <c r="BD147" s="1"/>
     </row>
-    <row r="148" spans="1:56" ht="18">
+    <row r="148" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9796,7 +9695,7 @@
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
     </row>
-    <row r="149" spans="1:56" ht="18">
+    <row r="149" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9854,7 +9753,7 @@
       <c r="BC149" s="1"/>
       <c r="BD149" s="1"/>
     </row>
-    <row r="150" spans="1:56" ht="18">
+    <row r="150" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9912,7 +9811,7 @@
       <c r="BC150" s="1"/>
       <c r="BD150" s="1"/>
     </row>
-    <row r="151" spans="1:56" ht="18">
+    <row r="151" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9970,7 +9869,7 @@
       <c r="BC151" s="1"/>
       <c r="BD151" s="1"/>
     </row>
-    <row r="152" spans="1:56" ht="18">
+    <row r="152" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -10028,7 +9927,7 @@
       <c r="BC152" s="1"/>
       <c r="BD152" s="1"/>
     </row>
-    <row r="153" spans="1:56" ht="18">
+    <row r="153" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -10086,7 +9985,7 @@
       <c r="BC153" s="1"/>
       <c r="BD153" s="1"/>
     </row>
-    <row r="154" spans="1:56" ht="18">
+    <row r="154" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -10144,7 +10043,7 @@
       <c r="BC154" s="1"/>
       <c r="BD154" s="1"/>
     </row>
-    <row r="155" spans="1:56" ht="18">
+    <row r="155" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -10202,7 +10101,7 @@
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
     </row>
-    <row r="156" spans="1:56" ht="18">
+    <row r="156" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10260,7 +10159,7 @@
       <c r="BC156" s="1"/>
       <c r="BD156" s="1"/>
     </row>
-    <row r="157" spans="1:56" ht="18">
+    <row r="157" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10318,7 +10217,7 @@
       <c r="BC157" s="1"/>
       <c r="BD157" s="1"/>
     </row>
-    <row r="158" spans="1:56" ht="18">
+    <row r="158" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10376,7 +10275,7 @@
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
     </row>
-    <row r="159" spans="1:56" ht="18">
+    <row r="159" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10434,7 +10333,7 @@
       <c r="BC159" s="1"/>
       <c r="BD159" s="1"/>
     </row>
-    <row r="160" spans="1:56" ht="18">
+    <row r="160" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10492,7 +10391,7 @@
       <c r="BC160" s="1"/>
       <c r="BD160" s="1"/>
     </row>
-    <row r="161" spans="1:56" ht="18">
+    <row r="161" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10550,7 +10449,7 @@
       <c r="BC161" s="1"/>
       <c r="BD161" s="1"/>
     </row>
-    <row r="162" spans="1:56" ht="18">
+    <row r="162" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10608,7 +10507,7 @@
       <c r="BC162" s="1"/>
       <c r="BD162" s="1"/>
     </row>
-    <row r="163" spans="1:56" ht="18">
+    <row r="163" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10666,7 +10565,7 @@
       <c r="BC163" s="1"/>
       <c r="BD163" s="1"/>
     </row>
-    <row r="164" spans="1:56" ht="18">
+    <row r="164" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10724,7 +10623,7 @@
       <c r="BC164" s="1"/>
       <c r="BD164" s="1"/>
     </row>
-    <row r="165" spans="1:56" ht="18">
+    <row r="165" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10782,7 +10681,7 @@
       <c r="BC165" s="1"/>
       <c r="BD165" s="1"/>
     </row>
-    <row r="166" spans="1:56" ht="18">
+    <row r="166" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10840,7 +10739,7 @@
       <c r="BC166" s="1"/>
       <c r="BD166" s="1"/>
     </row>
-    <row r="167" spans="1:56" ht="18">
+    <row r="167" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10898,7 +10797,7 @@
       <c r="BC167" s="1"/>
       <c r="BD167" s="1"/>
     </row>
-    <row r="168" spans="1:56" ht="18">
+    <row r="168" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10956,7 +10855,7 @@
       <c r="BC168" s="1"/>
       <c r="BD168" s="1"/>
     </row>
-    <row r="169" spans="1:56" ht="18">
+    <row r="169" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -11014,7 +10913,7 @@
       <c r="BC169" s="1"/>
       <c r="BD169" s="1"/>
     </row>
-    <row r="170" spans="1:56" ht="18">
+    <row r="170" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -11072,7 +10971,7 @@
       <c r="BC170" s="1"/>
       <c r="BD170" s="1"/>
     </row>
-    <row r="171" spans="1:56" ht="18">
+    <row r="171" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -11130,7 +11029,7 @@
       <c r="BC171" s="1"/>
       <c r="BD171" s="1"/>
     </row>
-    <row r="172" spans="1:56" ht="18">
+    <row r="172" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -11188,7 +11087,7 @@
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
     </row>
-    <row r="173" spans="1:56" ht="18">
+    <row r="173" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -11246,7 +11145,7 @@
       <c r="BC173" s="1"/>
       <c r="BD173" s="1"/>
     </row>
-    <row r="174" spans="1:56" ht="18">
+    <row r="174" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -11304,7 +11203,7 @@
       <c r="BC174" s="1"/>
       <c r="BD174" s="1"/>
     </row>
-    <row r="175" spans="1:56" ht="18">
+    <row r="175" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -11362,7 +11261,7 @@
       <c r="BC175" s="1"/>
       <c r="BD175" s="1"/>
     </row>
-    <row r="176" spans="1:56" ht="18">
+    <row r="176" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -11420,7 +11319,7 @@
       <c r="BC176" s="1"/>
       <c r="BD176" s="1"/>
     </row>
-    <row r="177" spans="1:56" ht="18">
+    <row r="177" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11478,7 +11377,7 @@
       <c r="BC177" s="1"/>
       <c r="BD177" s="1"/>
     </row>
-    <row r="178" spans="1:56" ht="18">
+    <row r="178" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -11536,7 +11435,7 @@
       <c r="BC178" s="1"/>
       <c r="BD178" s="1"/>
     </row>
-    <row r="179" spans="1:56" ht="18">
+    <row r="179" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11594,7 +11493,7 @@
       <c r="BC179" s="1"/>
       <c r="BD179" s="1"/>
     </row>
-    <row r="180" spans="1:56" ht="18">
+    <row r="180" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11652,7 +11551,7 @@
       <c r="BC180" s="1"/>
       <c r="BD180" s="1"/>
     </row>
-    <row r="181" spans="1:56" ht="18">
+    <row r="181" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11710,7 +11609,7 @@
       <c r="BC181" s="1"/>
       <c r="BD181" s="1"/>
     </row>
-    <row r="182" spans="1:56" ht="18">
+    <row r="182" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11768,7 +11667,7 @@
       <c r="BC182" s="1"/>
       <c r="BD182" s="1"/>
     </row>
-    <row r="183" spans="1:56" ht="18">
+    <row r="183" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11826,7 +11725,7 @@
       <c r="BC183" s="1"/>
       <c r="BD183" s="1"/>
     </row>
-    <row r="184" spans="1:56" ht="18">
+    <row r="184" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11884,7 +11783,7 @@
       <c r="BC184" s="1"/>
       <c r="BD184" s="1"/>
     </row>
-    <row r="185" spans="1:56" ht="18">
+    <row r="185" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11942,7 +11841,7 @@
       <c r="BC185" s="1"/>
       <c r="BD185" s="1"/>
     </row>
-    <row r="186" spans="1:56" ht="18">
+    <row r="186" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -12000,7 +11899,7 @@
       <c r="BC186" s="1"/>
       <c r="BD186" s="1"/>
     </row>
-    <row r="187" spans="1:56" ht="18">
+    <row r="187" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12058,7 +11957,7 @@
       <c r="BC187" s="1"/>
       <c r="BD187" s="1"/>
     </row>
-    <row r="188" spans="1:56" ht="18">
+    <row r="188" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -12116,7 +12015,7 @@
       <c r="BC188" s="1"/>
       <c r="BD188" s="1"/>
     </row>
-    <row r="189" spans="1:56" ht="18">
+    <row r="189" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12174,7 +12073,7 @@
       <c r="BC189" s="1"/>
       <c r="BD189" s="1"/>
     </row>
-    <row r="190" spans="1:56" ht="18">
+    <row r="190" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12232,7 +12131,7 @@
       <c r="BC190" s="1"/>
       <c r="BD190" s="1"/>
     </row>
-    <row r="191" spans="1:56" ht="18">
+    <row r="191" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12290,7 +12189,7 @@
       <c r="BC191" s="1"/>
       <c r="BD191" s="1"/>
     </row>
-    <row r="192" spans="1:56" ht="18">
+    <row r="192" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12348,7 +12247,7 @@
       <c r="BC192" s="1"/>
       <c r="BD192" s="1"/>
     </row>
-    <row r="193" spans="1:56" ht="18">
+    <row r="193" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12406,7 +12305,7 @@
       <c r="BC193" s="1"/>
       <c r="BD193" s="1"/>
     </row>
-    <row r="194" spans="1:56" ht="18">
+    <row r="194" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12464,7 +12363,7 @@
       <c r="BC194" s="1"/>
       <c r="BD194" s="1"/>
     </row>
-    <row r="195" spans="1:56" ht="18">
+    <row r="195" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12522,7 +12421,7 @@
       <c r="BC195" s="1"/>
       <c r="BD195" s="1"/>
     </row>
-    <row r="196" spans="1:56" ht="18">
+    <row r="196" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12580,7 +12479,7 @@
       <c r="BC196" s="1"/>
       <c r="BD196" s="1"/>
     </row>
-    <row r="197" spans="1:56" ht="18">
+    <row r="197" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12638,7 +12537,7 @@
       <c r="BC197" s="1"/>
       <c r="BD197" s="1"/>
     </row>
-    <row r="198" spans="1:56" ht="18">
+    <row r="198" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12696,7 +12595,7 @@
       <c r="BC198" s="1"/>
       <c r="BD198" s="1"/>
     </row>
-    <row r="199" spans="1:56" ht="18">
+    <row r="199" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12754,7 +12653,7 @@
       <c r="BC199" s="1"/>
       <c r="BD199" s="1"/>
     </row>
-    <row r="200" spans="1:56" ht="18">
+    <row r="200" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12812,7 +12711,7 @@
       <c r="BC200" s="1"/>
       <c r="BD200" s="1"/>
     </row>
-    <row r="201" spans="1:56" ht="18">
+    <row r="201" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12870,7 +12769,7 @@
       <c r="BC201" s="1"/>
       <c r="BD201" s="1"/>
     </row>
-    <row r="202" spans="1:56" ht="18">
+    <row r="202" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12928,7 +12827,7 @@
       <c r="BC202" s="1"/>
       <c r="BD202" s="1"/>
     </row>
-    <row r="203" spans="1:56" ht="18">
+    <row r="203" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12986,7 +12885,7 @@
       <c r="BC203" s="1"/>
       <c r="BD203" s="1"/>
     </row>
-    <row r="204" spans="1:56" ht="18">
+    <row r="204" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -13044,7 +12943,7 @@
       <c r="BC204" s="1"/>
       <c r="BD204" s="1"/>
     </row>
-    <row r="205" spans="1:56" ht="18">
+    <row r="205" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -13102,7 +13001,7 @@
       <c r="BC205" s="1"/>
       <c r="BD205" s="1"/>
     </row>
-    <row r="206" spans="1:56" ht="18">
+    <row r="206" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -13160,7 +13059,7 @@
       <c r="BC206" s="1"/>
       <c r="BD206" s="1"/>
     </row>
-    <row r="207" spans="1:56" ht="18">
+    <row r="207" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -13218,7 +13117,7 @@
       <c r="BC207" s="1"/>
       <c r="BD207" s="1"/>
     </row>
-    <row r="208" spans="1:56" ht="18">
+    <row r="208" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -13276,7 +13175,7 @@
       <c r="BC208" s="1"/>
       <c r="BD208" s="1"/>
     </row>
-    <row r="209" spans="1:56" ht="18">
+    <row r="209" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -13334,7 +13233,7 @@
       <c r="BC209" s="1"/>
       <c r="BD209" s="1"/>
     </row>
-    <row r="210" spans="1:56" ht="18">
+    <row r="210" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -13392,7 +13291,7 @@
       <c r="BC210" s="1"/>
       <c r="BD210" s="1"/>
     </row>
-    <row r="211" spans="1:56" ht="18">
+    <row r="211" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -13450,7 +13349,7 @@
       <c r="BC211" s="1"/>
       <c r="BD211" s="1"/>
     </row>
-    <row r="212" spans="1:56" ht="18">
+    <row r="212" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -13508,7 +13407,7 @@
       <c r="BC212" s="1"/>
       <c r="BD212" s="1"/>
     </row>
-    <row r="213" spans="1:56" ht="18">
+    <row r="213" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -13566,7 +13465,7 @@
       <c r="BC213" s="1"/>
       <c r="BD213" s="1"/>
     </row>
-    <row r="214" spans="1:56" ht="18">
+    <row r="214" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -13624,7 +13523,7 @@
       <c r="BC214" s="1"/>
       <c r="BD214" s="1"/>
     </row>
-    <row r="215" spans="1:56" ht="18">
+    <row r="215" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -13682,7 +13581,7 @@
       <c r="BC215" s="1"/>
       <c r="BD215" s="1"/>
     </row>
-    <row r="216" spans="1:56" ht="18">
+    <row r="216" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13740,7 +13639,7 @@
       <c r="BC216" s="1"/>
       <c r="BD216" s="1"/>
     </row>
-    <row r="217" spans="1:56" ht="18">
+    <row r="217" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13798,7 +13697,7 @@
       <c r="BC217" s="1"/>
       <c r="BD217" s="1"/>
     </row>
-    <row r="218" spans="1:56" ht="18">
+    <row r="218" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13856,7 +13755,7 @@
       <c r="BC218" s="1"/>
       <c r="BD218" s="1"/>
     </row>
-    <row r="219" spans="1:56" ht="18">
+    <row r="219" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13914,7 +13813,7 @@
       <c r="BC219" s="1"/>
       <c r="BD219" s="1"/>
     </row>
-    <row r="220" spans="1:56" ht="18">
+    <row r="220" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13972,7 +13871,7 @@
       <c r="BC220" s="1"/>
       <c r="BD220" s="1"/>
     </row>
-    <row r="221" spans="1:56" ht="18">
+    <row r="221" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -14030,7 +13929,7 @@
       <c r="BC221" s="1"/>
       <c r="BD221" s="1"/>
     </row>
-    <row r="222" spans="1:56" ht="18">
+    <row r="222" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -14088,7 +13987,7 @@
       <c r="BC222" s="1"/>
       <c r="BD222" s="1"/>
     </row>
-    <row r="223" spans="1:56" ht="18">
+    <row r="223" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -14146,7 +14045,7 @@
       <c r="BC223" s="1"/>
       <c r="BD223" s="1"/>
     </row>
-    <row r="224" spans="1:56" ht="18">
+    <row r="224" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -14204,7 +14103,7 @@
       <c r="BC224" s="1"/>
       <c r="BD224" s="1"/>
     </row>
-    <row r="225" spans="1:56" ht="18">
+    <row r="225" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -14262,7 +14161,7 @@
       <c r="BC225" s="1"/>
       <c r="BD225" s="1"/>
     </row>
-    <row r="226" spans="1:56" ht="18">
+    <row r="226" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -14320,7 +14219,7 @@
       <c r="BC226" s="1"/>
       <c r="BD226" s="1"/>
     </row>
-    <row r="227" spans="1:56" ht="18">
+    <row r="227" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -14378,7 +14277,7 @@
       <c r="BC227" s="1"/>
       <c r="BD227" s="1"/>
     </row>
-    <row r="228" spans="1:56" ht="18">
+    <row r="228" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -14436,7 +14335,7 @@
       <c r="BC228" s="1"/>
       <c r="BD228" s="1"/>
     </row>
-    <row r="229" spans="1:56" ht="18">
+    <row r="229" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -14494,7 +14393,7 @@
       <c r="BC229" s="1"/>
       <c r="BD229" s="1"/>
     </row>
-    <row r="230" spans="1:56" ht="18">
+    <row r="230" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -14552,7 +14451,7 @@
       <c r="BC230" s="1"/>
       <c r="BD230" s="1"/>
     </row>
-    <row r="231" spans="1:56" ht="18">
+    <row r="231" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -14610,7 +14509,7 @@
       <c r="BC231" s="1"/>
       <c r="BD231" s="1"/>
     </row>
-    <row r="232" spans="1:56" ht="18">
+    <row r="232" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -14668,7 +14567,7 @@
       <c r="BC232" s="1"/>
       <c r="BD232" s="1"/>
     </row>
-    <row r="233" spans="1:56" ht="18">
+    <row r="233" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -14726,7 +14625,7 @@
       <c r="BC233" s="1"/>
       <c r="BD233" s="1"/>
     </row>
-    <row r="234" spans="1:56" ht="18">
+    <row r="234" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -14784,7 +14683,7 @@
       <c r="BC234" s="1"/>
       <c r="BD234" s="1"/>
     </row>
-    <row r="235" spans="1:56" ht="18">
+    <row r="235" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -14842,7 +14741,7 @@
       <c r="BC235" s="1"/>
       <c r="BD235" s="1"/>
     </row>
-    <row r="236" spans="1:56" ht="18">
+    <row r="236" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14900,7 +14799,7 @@
       <c r="BC236" s="1"/>
       <c r="BD236" s="1"/>
     </row>
-    <row r="237" spans="1:56" ht="18">
+    <row r="237" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14958,7 +14857,7 @@
       <c r="BC237" s="1"/>
       <c r="BD237" s="1"/>
     </row>
-    <row r="238" spans="1:56" ht="18">
+    <row r="238" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -15016,7 +14915,7 @@
       <c r="BC238" s="1"/>
       <c r="BD238" s="1"/>
     </row>
-    <row r="239" spans="1:56" ht="18">
+    <row r="239" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -15074,7 +14973,7 @@
       <c r="BC239" s="1"/>
       <c r="BD239" s="1"/>
     </row>
-    <row r="240" spans="1:56" ht="18">
+    <row r="240" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -15132,7 +15031,7 @@
       <c r="BC240" s="1"/>
       <c r="BD240" s="1"/>
     </row>
-    <row r="241" spans="1:56" ht="18">
+    <row r="241" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -15190,7 +15089,7 @@
       <c r="BC241" s="1"/>
       <c r="BD241" s="1"/>
     </row>
-    <row r="242" spans="1:56" ht="18">
+    <row r="242" spans="1:56" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -15248,148 +15147,85 @@
       <c r="BC242" s="1"/>
       <c r="BD242" s="1"/>
     </row>
-    <row r="243" spans="1:56" ht="18">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
-      <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="X243" s="1"/>
-      <c r="Y243" s="1"/>
-      <c r="Z243" s="1"/>
-      <c r="AA243" s="1"/>
-      <c r="AB243" s="1"/>
-      <c r="AC243" s="1"/>
-      <c r="AD243" s="1"/>
-      <c r="AE243" s="1"/>
-      <c r="AF243" s="1"/>
-      <c r="AG243" s="1"/>
-      <c r="AH243" s="1"/>
-      <c r="AI243" s="1"/>
-      <c r="AJ243" s="1"/>
-      <c r="AK243" s="1"/>
-      <c r="AL243" s="1"/>
-      <c r="AM243" s="1"/>
-      <c r="AN243" s="1"/>
-      <c r="AO243" s="1"/>
-      <c r="AP243" s="1"/>
-      <c r="AQ243" s="1"/>
-      <c r="AR243" s="1"/>
-      <c r="AS243" s="1"/>
-      <c r="AT243" s="1"/>
-      <c r="AU243" s="1"/>
-      <c r="AV243" s="1"/>
-      <c r="AW243" s="1"/>
-      <c r="AX243" s="1"/>
-      <c r="AY243" s="1"/>
-      <c r="AZ243" s="1"/>
-      <c r="BA243" s="1"/>
-      <c r="BB243" s="1"/>
-      <c r="BC243" s="1"/>
-      <c r="BD243" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="77">
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="K7:M7"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K21:M21"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="N8:O8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15402,21 +15238,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CDCEE4EE84D404B82284A61FE843539" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37d7c8f0825fae7b7e39c192c8424bc3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d581f8e8412fe39a3794ccf6300b7a27">
     <xsd:element name="properties">
@@ -15530,10 +15351,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8F13E1-F7EA-44E3-88A7-CD54CB071ABE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4D17B90-1582-4027-A37A-8E73A5D46878}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -15548,16 +15391,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4D17B90-1582-4027-A37A-8E73A5D46878}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC8F13E1-F7EA-44E3-88A7-CD54CB071ABE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
